--- a/Task20/target/classes/Student_Data.xlsx
+++ b/Task20/target/classes/Student_Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>rollno</t>
   </si>
@@ -1557,18 +1557,10 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2">
-        <v>95072352058</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="3">
-        <v>9489458870</v>
-      </c>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
